--- a/projectCode/output.xlsx
+++ b/projectCode/output.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -986,7 +986,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1390,7 +1390,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1442,7 +1442,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1494,7 +1494,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1598,7 +1598,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1650,7 +1650,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1754,7 +1754,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1806,7 +1806,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2066,7 +2066,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2222,7 +2222,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2274,7 +2274,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2430,7 +2430,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:58</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2534,7 +2534,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2586,7 +2586,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2742,7 +2742,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2794,7 +2794,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2846,7 +2846,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2950,7 +2950,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3002,7 +3002,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3126,7 +3126,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3302,7 +3302,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3354,7 +3354,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3406,7 +3406,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3478,7 +3478,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3654,7 +3654,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3706,7 +3706,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3758,7 +3758,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3830,7 +3830,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3882,7 +3882,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4006,7 +4006,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4214,7 +4214,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4266,7 +4266,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4370,7 +4370,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4422,7 +4422,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4474,7 +4474,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4630,7 +4630,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4682,7 +4682,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4734,7 +4734,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4786,7 +4786,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4942,7 +4942,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4994,7 +4994,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5098,7 +5098,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5150,7 +5150,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5202,7 +5202,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5254,7 +5254,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5306,7 +5306,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5358,7 +5358,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5410,7 +5410,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5482,7 +5482,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2022-03-18 10:43:59</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5534,7 +5534,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5730,7 +5730,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5802,7 +5802,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5874,7 +5874,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5926,7 +5926,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5998,7 +5998,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6070,7 +6070,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6194,7 +6194,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:08</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6390,7 +6390,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6462,7 +6462,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6514,7 +6514,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6566,7 +6566,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6638,7 +6638,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6690,7 +6690,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6742,7 +6742,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6866,7 +6866,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6918,7 +6918,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6990,7 +6990,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7042,7 +7042,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7094,7 +7094,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7166,7 +7166,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7270,7 +7270,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7342,7 +7342,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7394,7 +7394,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7446,7 +7446,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7570,7 +7570,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7622,7 +7622,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7694,7 +7694,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7746,7 +7746,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7870,7 +7870,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7922,7 +7922,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7974,7 +7974,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8046,7 +8046,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8098,7 +8098,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8150,7 +8150,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -8222,7 +8222,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8274,7 +8274,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8326,7 +8326,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8450,7 +8450,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8502,7 +8502,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8574,7 +8574,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8626,7 +8626,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:09</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8678,7 +8678,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8750,7 +8750,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8802,7 +8802,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8854,7 +8854,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:00</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8926,7 +8926,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8978,7 +8978,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9030,7 +9030,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9102,7 +9102,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -9154,7 +9154,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9206,7 +9206,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9278,7 +9278,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9330,7 +9330,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -9382,7 +9382,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -9454,7 +9454,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -9506,7 +9506,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -9558,7 +9558,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -9630,7 +9630,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9682,7 +9682,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -9734,7 +9734,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -9806,7 +9806,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9858,7 +9858,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9910,7 +9910,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9982,7 +9982,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -10034,7 +10034,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -10086,7 +10086,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -10158,7 +10158,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -10210,7 +10210,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -10262,7 +10262,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -10334,7 +10334,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -10386,7 +10386,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -10438,7 +10438,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -10510,7 +10510,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -10562,7 +10562,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -10614,7 +10614,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -10686,7 +10686,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -10738,7 +10738,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -10790,7 +10790,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -10862,7 +10862,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -10914,7 +10914,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10966,7 +10966,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:10</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -11038,7 +11038,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -11090,7 +11090,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -11142,7 +11142,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -11214,7 +11214,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -11266,7 +11266,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -11318,7 +11318,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11390,7 +11390,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11442,7 +11442,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -11494,7 +11494,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11546,7 +11546,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -11598,7 +11598,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -11650,7 +11650,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -11702,7 +11702,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11754,7 +11754,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11806,7 +11806,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11858,7 +11858,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11910,7 +11910,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11962,7 +11962,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -12014,7 +12014,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -12066,7 +12066,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:01</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -12118,7 +12118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -12170,7 +12170,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -12222,7 +12222,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -12274,7 +12274,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -12326,7 +12326,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -12378,7 +12378,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -12430,7 +12430,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -12482,7 +12482,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -12534,7 +12534,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -12586,7 +12586,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -12638,7 +12638,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12690,7 +12690,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12742,7 +12742,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -12794,7 +12794,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -12846,7 +12846,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -12898,7 +12898,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -12950,7 +12950,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -13002,7 +13002,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -13054,7 +13054,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -13106,7 +13106,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -13158,7 +13158,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -13210,7 +13210,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:11</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -13262,7 +13262,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -13314,7 +13314,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -13366,7 +13366,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -13418,7 +13418,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -13470,7 +13470,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -13522,7 +13522,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -13574,7 +13574,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -13626,7 +13626,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -13678,7 +13678,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -13750,7 +13750,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -13802,7 +13802,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -13854,7 +13854,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -13926,7 +13926,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -13978,7 +13978,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -14030,7 +14030,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -14102,7 +14102,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -14154,7 +14154,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -14206,7 +14206,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -14278,7 +14278,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -14330,7 +14330,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -14382,7 +14382,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -14454,7 +14454,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -14506,7 +14506,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -14558,7 +14558,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -14630,7 +14630,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -14682,7 +14682,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -14734,7 +14734,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -14806,7 +14806,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -14858,7 +14858,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -14910,7 +14910,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -14982,7 +14982,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -15034,7 +15034,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -15086,7 +15086,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:02</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -15158,7 +15158,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -15210,7 +15210,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -15262,7 +15262,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -15334,7 +15334,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -15386,7 +15386,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -15438,7 +15438,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -15510,7 +15510,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -15562,7 +15562,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:12</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -15614,7 +15614,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -15686,7 +15686,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -15738,7 +15738,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -15790,7 +15790,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -15862,7 +15862,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -15914,7 +15914,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -15966,7 +15966,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -16018,7 +16018,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -16070,7 +16070,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -16122,7 +16122,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -16174,7 +16174,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -16226,7 +16226,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -16278,7 +16278,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -16330,7 +16330,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -16382,7 +16382,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -16434,7 +16434,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -16486,7 +16486,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -16538,7 +16538,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -16590,7 +16590,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -16642,7 +16642,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -16694,7 +16694,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -16746,7 +16746,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -16798,7 +16798,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -16850,7 +16850,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -16902,7 +16902,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -16974,7 +16974,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -17026,7 +17026,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -17078,7 +17078,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -17150,7 +17150,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -17202,7 +17202,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -17254,7 +17254,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -17326,7 +17326,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -17378,7 +17378,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -17430,7 +17430,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -17502,7 +17502,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -17554,7 +17554,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -17606,7 +17606,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -17678,7 +17678,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -17730,7 +17730,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -17782,7 +17782,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:13</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -17854,7 +17854,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -17906,7 +17906,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -17958,7 +17958,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -18030,7 +18030,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -18082,7 +18082,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -18134,7 +18134,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:03</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -18206,7 +18206,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -18258,7 +18258,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -18310,7 +18310,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -18382,7 +18382,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -18434,7 +18434,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -18486,7 +18486,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -18558,7 +18558,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -18610,7 +18610,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -18662,7 +18662,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -18734,7 +18734,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -18786,7 +18786,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -18838,7 +18838,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -18910,7 +18910,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -18962,7 +18962,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -19014,7 +19014,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -19086,7 +19086,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -19138,7 +19138,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -19190,7 +19190,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -19262,7 +19262,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -19314,7 +19314,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -19366,7 +19366,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -19438,7 +19438,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -19490,7 +19490,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -19542,7 +19542,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -19594,7 +19594,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -19646,7 +19646,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -19698,7 +19698,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -19750,7 +19750,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -19802,7 +19802,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -19854,7 +19854,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -19906,7 +19906,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -19958,7 +19958,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -20010,7 +20010,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -20062,7 +20062,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -20114,7 +20114,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -20166,7 +20166,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:14</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -20218,7 +20218,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -20270,7 +20270,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -20322,7 +20322,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -20374,7 +20374,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -20426,7 +20426,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -20478,7 +20478,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -20530,7 +20530,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -20582,7 +20582,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -20634,7 +20634,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -20686,7 +20686,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -20738,7 +20738,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -20790,7 +20790,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -20842,7 +20842,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -20894,7 +20894,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -20946,7 +20946,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -20998,7 +20998,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -21050,7 +21050,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -21102,7 +21102,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -21154,7 +21154,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -21206,7 +21206,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:04</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -21258,7 +21258,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -21310,7 +21310,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -21362,7 +21362,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -21414,7 +21414,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -21466,7 +21466,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -21518,7 +21518,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -21570,7 +21570,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -21622,7 +21622,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -21674,7 +21674,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -21726,7 +21726,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -21778,7 +21778,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -21830,7 +21830,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -21882,7 +21882,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -21934,7 +21934,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -21986,7 +21986,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -22038,7 +22038,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -22090,7 +22090,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -22142,7 +22142,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -22194,7 +22194,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -22246,7 +22246,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -22298,7 +22298,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:15</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -22350,7 +22350,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -22402,7 +22402,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -22454,7 +22454,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -22506,7 +22506,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -22558,7 +22558,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -22610,7 +22610,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -22662,7 +22662,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -22714,7 +22714,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -22766,7 +22766,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -22818,7 +22818,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -22870,7 +22870,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -22922,7 +22922,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -22974,7 +22974,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -23026,7 +23026,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -23078,7 +23078,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -23130,7 +23130,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -23182,7 +23182,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -23234,7 +23234,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -23286,7 +23286,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -23338,7 +23338,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -23390,7 +23390,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -23442,7 +23442,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -23494,7 +23494,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -23546,7 +23546,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -23598,7 +23598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -23650,7 +23650,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -23702,7 +23702,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -23754,7 +23754,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -23806,7 +23806,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -23858,7 +23858,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -23910,7 +23910,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -23962,7 +23962,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -24014,7 +24014,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -24066,7 +24066,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:05</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -24118,7 +24118,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -24170,7 +24170,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -24222,7 +24222,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -24274,7 +24274,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -24326,7 +24326,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -24378,7 +24378,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -24430,7 +24430,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:16</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -24482,7 +24482,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -24534,7 +24534,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -24586,7 +24586,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -24690,7 +24690,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -24742,7 +24742,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -24794,7 +24794,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -24846,7 +24846,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -24898,7 +24898,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -24950,7 +24950,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -25002,7 +25002,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -25054,7 +25054,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -25106,7 +25106,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -25158,7 +25158,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -25210,7 +25210,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -25262,7 +25262,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -25314,7 +25314,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -25366,7 +25366,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -25418,7 +25418,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -25470,7 +25470,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -25522,7 +25522,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -25574,7 +25574,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -25626,7 +25626,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -25678,7 +25678,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -25730,7 +25730,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -25782,7 +25782,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -25834,7 +25834,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -25886,7 +25886,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -25938,7 +25938,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -26010,7 +26010,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -26062,7 +26062,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -26114,7 +26114,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -26166,7 +26166,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -26218,7 +26218,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -26270,7 +26270,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -26322,7 +26322,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -26374,7 +26374,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -26426,7 +26426,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -26478,7 +26478,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -26530,7 +26530,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:17</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -26582,7 +26582,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -26634,7 +26634,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -26686,7 +26686,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -26738,7 +26738,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -26790,7 +26790,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -26842,7 +26842,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -26894,7 +26894,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -26946,7 +26946,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -26998,7 +26998,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:06</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -27050,7 +27050,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -27102,7 +27102,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -27154,7 +27154,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -27206,7 +27206,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -27258,7 +27258,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -27310,7 +27310,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -27362,7 +27362,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -27414,7 +27414,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -27466,7 +27466,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -27518,7 +27518,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -27570,7 +27570,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -27622,7 +27622,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -27674,7 +27674,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -27726,7 +27726,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -27778,7 +27778,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -27830,7 +27830,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -27882,7 +27882,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -27934,7 +27934,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -27986,7 +27986,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -28038,7 +28038,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -28090,7 +28090,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -28142,7 +28142,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -28194,7 +28194,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -28246,7 +28246,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -28298,7 +28298,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -28350,7 +28350,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -28402,7 +28402,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -28454,7 +28454,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -28506,7 +28506,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -28558,7 +28558,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -28610,7 +28610,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -28662,7 +28662,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -28714,7 +28714,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:18</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -28766,7 +28766,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -28818,7 +28818,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -28870,7 +28870,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -28922,7 +28922,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -28974,7 +28974,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -29026,7 +29026,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -29078,7 +29078,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -29130,7 +29130,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -29182,7 +29182,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -29234,7 +29234,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -29286,7 +29286,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -29338,7 +29338,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -29390,7 +29390,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -29442,7 +29442,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -29494,7 +29494,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -29546,7 +29546,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -29598,7 +29598,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -29650,7 +29650,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -29702,7 +29702,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -29754,7 +29754,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -29806,7 +29806,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -29858,7 +29858,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -29910,7 +29910,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -29962,7 +29962,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:07</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -30014,7 +30014,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -30066,7 +30066,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -30118,7 +30118,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -30170,7 +30170,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -30222,7 +30222,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -30274,7 +30274,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -30326,7 +30326,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -30378,7 +30378,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -30430,7 +30430,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -30482,7 +30482,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -30534,7 +30534,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -30586,7 +30586,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -30638,7 +30638,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -30690,7 +30690,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -30742,7 +30742,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -30794,7 +30794,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -30846,7 +30846,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -30898,7 +30898,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -30950,7 +30950,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -31002,7 +31002,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -31054,7 +31054,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -31106,7 +31106,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:19</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -31158,7 +31158,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -31210,7 +31210,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -31262,7 +31262,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -31314,7 +31314,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -31366,7 +31366,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -31418,7 +31418,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -31470,7 +31470,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -31522,7 +31522,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -31574,7 +31574,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -31626,7 +31626,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -31678,7 +31678,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -31730,7 +31730,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -31782,7 +31782,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -31834,7 +31834,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -31886,7 +31886,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -31938,7 +31938,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -31990,7 +31990,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -32042,7 +32042,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -32094,7 +32094,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -32146,7 +32146,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -32198,7 +32198,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -32250,7 +32250,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -32302,7 +32302,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -32354,7 +32354,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -32406,7 +32406,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -32458,7 +32458,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -32510,7 +32510,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -32582,7 +32582,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -32634,7 +32634,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -32686,7 +32686,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -32758,7 +32758,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -32810,7 +32810,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -32862,7 +32862,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -32934,7 +32934,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -32986,7 +32986,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -33038,7 +33038,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:08</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -33110,7 +33110,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -33162,7 +33162,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -33214,7 +33214,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -33286,7 +33286,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -33338,7 +33338,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:20</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -33390,7 +33390,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -33462,7 +33462,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -33514,7 +33514,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -33566,7 +33566,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -33638,7 +33638,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -33690,7 +33690,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -33742,7 +33742,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -33814,7 +33814,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -33866,7 +33866,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -33918,7 +33918,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -33990,7 +33990,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -34042,7 +34042,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -34094,7 +34094,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -34166,7 +34166,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -34218,7 +34218,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -34270,7 +34270,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -34342,7 +34342,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -34394,7 +34394,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -34446,7 +34446,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -34518,7 +34518,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -34570,7 +34570,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -34622,7 +34622,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -34694,7 +34694,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -34746,7 +34746,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -34798,7 +34798,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -34870,7 +34870,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -34922,7 +34922,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -34974,7 +34974,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -35046,7 +35046,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -35098,7 +35098,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -35150,7 +35150,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -35222,7 +35222,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -35274,7 +35274,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -35326,7 +35326,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -35398,7 +35398,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -35450,7 +35450,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -35502,7 +35502,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -35574,7 +35574,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -35626,7 +35626,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -35678,7 +35678,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -35750,7 +35750,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:21</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -35802,7 +35802,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -35854,7 +35854,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -35926,7 +35926,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -35978,7 +35978,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -36030,7 +36030,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -36102,7 +36102,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -36154,7 +36154,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -36206,7 +36206,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -36278,7 +36278,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:09</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -36330,7 +36330,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -36382,7 +36382,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -36454,7 +36454,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -36506,7 +36506,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -36558,7 +36558,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -36630,7 +36630,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -36682,7 +36682,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -36734,7 +36734,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -36806,7 +36806,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -36858,7 +36858,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -36910,7 +36910,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -36982,7 +36982,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -37034,7 +37034,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -37086,7 +37086,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -37158,7 +37158,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -37210,7 +37210,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -37262,7 +37262,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -37334,7 +37334,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -37386,7 +37386,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -37438,7 +37438,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -37490,7 +37490,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -37542,7 +37542,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -37594,7 +37594,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -37646,7 +37646,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -37698,7 +37698,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -37750,7 +37750,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -37802,7 +37802,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -37854,7 +37854,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -37906,7 +37906,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -37958,7 +37958,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -38010,7 +38010,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -38062,7 +38062,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -38114,7 +38114,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -38166,7 +38166,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -38218,7 +38218,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:22</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -38270,7 +38270,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -38322,7 +38322,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -38374,7 +38374,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -38426,7 +38426,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -38478,7 +38478,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -38530,7 +38530,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -38582,7 +38582,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -38634,7 +38634,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -38686,7 +38686,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -38738,7 +38738,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -38790,7 +38790,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -38842,7 +38842,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -38894,7 +38894,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -38946,7 +38946,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -38998,7 +38998,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -39050,7 +39050,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -39102,7 +39102,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -39154,7 +39154,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -39206,7 +39206,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -39258,7 +39258,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -39310,7 +39310,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:10</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -39362,7 +39362,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -39414,7 +39414,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -39466,7 +39466,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -39518,7 +39518,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -39570,7 +39570,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -39622,7 +39622,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -39674,7 +39674,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -39726,7 +39726,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -39798,7 +39798,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -39850,7 +39850,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -39902,7 +39902,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -39954,7 +39954,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -40006,7 +40006,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -40058,7 +40058,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -40110,7 +40110,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -40162,7 +40162,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -40214,7 +40214,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -40286,7 +40286,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -40338,7 +40338,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -40390,7 +40390,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -40462,7 +40462,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -40514,7 +40514,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -40566,7 +40566,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -40638,7 +40638,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:23</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -40690,7 +40690,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -40742,7 +40742,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -40814,7 +40814,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -40866,7 +40866,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -40918,7 +40918,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -40970,7 +40970,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -41022,7 +41022,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -41074,7 +41074,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -41126,7 +41126,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -41178,7 +41178,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -41230,7 +41230,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -41282,7 +41282,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -41334,7 +41334,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -41386,7 +41386,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -41438,7 +41438,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -41490,7 +41490,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -41542,7 +41542,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -41594,7 +41594,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -41646,7 +41646,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -41698,7 +41698,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -41750,7 +41750,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -41802,7 +41802,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -41854,7 +41854,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -41906,7 +41906,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -41958,7 +41958,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -42010,7 +42010,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -42062,7 +42062,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -42114,7 +42114,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -42166,7 +42166,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -42218,7 +42218,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -42270,7 +42270,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -42322,7 +42322,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:11</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -42374,7 +42374,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -42426,7 +42426,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -42478,7 +42478,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -42530,7 +42530,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -42582,7 +42582,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -42634,7 +42634,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -42686,7 +42686,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -42738,7 +42738,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -42790,7 +42790,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -42842,7 +42842,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:24</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -42894,7 +42894,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -42946,7 +42946,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -42998,7 +42998,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -43050,7 +43050,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -43102,7 +43102,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -43154,7 +43154,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -43206,7 +43206,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -43258,7 +43258,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -43310,7 +43310,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -43362,7 +43362,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -43414,7 +43414,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -43466,7 +43466,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -43518,7 +43518,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -43570,7 +43570,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -43622,7 +43622,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -43674,7 +43674,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -43726,7 +43726,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -43778,7 +43778,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -43830,7 +43830,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -43882,7 +43882,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -43934,7 +43934,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -43986,7 +43986,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -44038,7 +44038,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -44090,7 +44090,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -44142,7 +44142,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -44194,7 +44194,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -44246,7 +44246,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -44298,7 +44298,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -44350,7 +44350,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -44402,7 +44402,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -44454,7 +44454,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -44506,7 +44506,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -44578,7 +44578,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -44630,7 +44630,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -44682,7 +44682,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -44754,7 +44754,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -44806,7 +44806,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -44858,7 +44858,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -44930,7 +44930,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -44982,7 +44982,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -45034,7 +45034,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -45106,7 +45106,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -45158,7 +45158,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -45210,7 +45210,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:25</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -45262,7 +45262,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -45314,7 +45314,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -45366,7 +45366,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:12</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -45418,7 +45418,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -45470,7 +45470,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -45522,7 +45522,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -45574,7 +45574,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -45626,7 +45626,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -45678,7 +45678,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -45730,7 +45730,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -45782,7 +45782,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -45834,7 +45834,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -45886,7 +45886,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -45938,7 +45938,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -45990,7 +45990,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -46042,7 +46042,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -46094,7 +46094,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -46146,7 +46146,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -46198,7 +46198,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -46250,7 +46250,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -46302,7 +46302,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -46354,7 +46354,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -46406,7 +46406,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -46458,7 +46458,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -46510,7 +46510,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -46562,7 +46562,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -46614,7 +46614,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -46666,7 +46666,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -46718,7 +46718,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -46770,7 +46770,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -46822,7 +46822,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -46874,7 +46874,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -46926,7 +46926,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -46978,7 +46978,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -47030,7 +47030,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -47082,7 +47082,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -47134,7 +47134,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -47186,7 +47186,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -47238,7 +47238,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -47290,7 +47290,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -47342,7 +47342,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -47394,7 +47394,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -47446,7 +47446,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -47498,7 +47498,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -47550,7 +47550,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -47602,7 +47602,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -47654,7 +47654,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -47706,7 +47706,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:26</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -47758,7 +47758,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -47810,7 +47810,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -47862,7 +47862,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -47914,7 +47914,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -47966,7 +47966,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -48018,7 +48018,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -48070,7 +48070,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -48122,7 +48122,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -48174,7 +48174,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -48226,7 +48226,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -48278,7 +48278,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:13</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -48330,7 +48330,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -48382,7 +48382,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -48434,7 +48434,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -48486,7 +48486,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -48538,7 +48538,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -48590,7 +48590,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -48642,7 +48642,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -48694,7 +48694,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -48746,7 +48746,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -48798,7 +48798,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -48850,7 +48850,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -48902,7 +48902,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -48954,7 +48954,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -49006,7 +49006,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -49078,7 +49078,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -49130,7 +49130,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -49182,7 +49182,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -49254,7 +49254,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -49306,7 +49306,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -49358,7 +49358,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -49430,7 +49430,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -49482,7 +49482,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -49534,7 +49534,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -49606,7 +49606,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -49658,7 +49658,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -49710,7 +49710,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -49782,7 +49782,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -49834,7 +49834,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -49886,7 +49886,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -49958,7 +49958,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -50010,7 +50010,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -50062,7 +50062,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -50134,7 +50134,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -50186,7 +50186,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:27</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -50238,7 +50238,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -50310,7 +50310,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -50362,7 +50362,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -50414,7 +50414,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -50486,7 +50486,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -50538,7 +50538,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -50590,7 +50590,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -50662,7 +50662,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -50714,7 +50714,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -50766,7 +50766,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -50838,7 +50838,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -50890,7 +50890,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -50942,7 +50942,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -50994,7 +50994,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -51046,7 +51046,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -51098,7 +51098,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -51150,7 +51150,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -51202,7 +51202,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -51254,7 +51254,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:14</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -51306,7 +51306,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -51358,7 +51358,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -51410,7 +51410,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -51462,7 +51462,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -51514,7 +51514,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -51566,7 +51566,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -51618,7 +51618,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -51670,7 +51670,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -51722,7 +51722,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -51774,7 +51774,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -51826,7 +51826,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -51878,7 +51878,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -51950,7 +51950,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -52002,7 +52002,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -52054,7 +52054,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -52126,7 +52126,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -52178,7 +52178,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -52230,7 +52230,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -52302,7 +52302,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -52354,7 +52354,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -52406,7 +52406,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -52478,7 +52478,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -52530,7 +52530,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -52582,7 +52582,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -52654,7 +52654,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -52706,7 +52706,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:28</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -52758,7 +52758,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -52830,7 +52830,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -52882,7 +52882,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -52934,7 +52934,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -52986,7 +52986,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -53038,7 +53038,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -53090,7 +53090,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -53142,7 +53142,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -53194,7 +53194,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -53246,7 +53246,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -53298,7 +53298,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -53350,7 +53350,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -53402,7 +53402,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -53454,7 +53454,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -53506,7 +53506,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -53558,7 +53558,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -53610,7 +53610,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -53662,7 +53662,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -53714,7 +53714,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -53766,7 +53766,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -53818,7 +53818,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -53870,7 +53870,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -53922,7 +53922,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -53974,7 +53974,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -54026,7 +54026,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -54078,7 +54078,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -54130,7 +54130,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -54182,7 +54182,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -54234,7 +54234,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -54286,7 +54286,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:15</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -54338,7 +54338,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -54390,7 +54390,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -54442,7 +54442,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -54494,7 +54494,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -54546,7 +54546,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -54598,7 +54598,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -54650,7 +54650,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -54702,7 +54702,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -54754,7 +54754,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -54806,7 +54806,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:29</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -54858,7 +54858,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -54910,7 +54910,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -54962,7 +54962,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -55014,7 +55014,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -55066,7 +55066,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -55118,7 +55118,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -55170,7 +55170,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -55222,7 +55222,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -55274,7 +55274,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -55326,7 +55326,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -55378,7 +55378,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -55430,7 +55430,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -55482,7 +55482,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -55534,7 +55534,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -55586,7 +55586,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -55638,7 +55638,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -55690,7 +55690,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -55742,7 +55742,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -55794,7 +55794,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -55846,7 +55846,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -55898,7 +55898,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -55950,7 +55950,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -56002,7 +56002,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -56054,7 +56054,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -56106,7 +56106,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -56158,7 +56158,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -56210,7 +56210,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -56262,7 +56262,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -56314,7 +56314,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -56366,7 +56366,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -56438,7 +56438,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -56510,7 +56510,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -56582,7 +56582,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -56654,7 +56654,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -56726,7 +56726,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -56798,7 +56798,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:30</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -56870,7 +56870,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -56942,7 +56942,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -57014,7 +57014,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -57066,7 +57066,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -57118,7 +57118,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:16</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -57170,7 +57170,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -57222,7 +57222,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -57274,7 +57274,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -57326,7 +57326,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -57378,7 +57378,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
@@ -57430,7 +57430,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -57482,7 +57482,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -57534,7 +57534,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -57586,7 +57586,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -57638,7 +57638,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
@@ -57690,7 +57690,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -57742,7 +57742,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
@@ -57794,7 +57794,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
@@ -57846,7 +57846,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
@@ -57898,7 +57898,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
@@ -57950,7 +57950,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
@@ -58002,7 +58002,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
@@ -58054,7 +58054,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
@@ -58106,7 +58106,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
@@ -58158,7 +58158,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
@@ -58210,7 +58210,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
@@ -58262,7 +58262,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
@@ -58314,7 +58314,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -58366,7 +58366,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
@@ -58418,7 +58418,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -58470,7 +58470,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -58522,7 +58522,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:31</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -58574,7 +58574,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
@@ -58626,7 +58626,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
@@ -58678,7 +58678,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
@@ -58730,7 +58730,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -58782,7 +58782,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -58834,7 +58834,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -58886,7 +58886,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -58938,7 +58938,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -58990,7 +58990,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
@@ -59042,7 +59042,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -59094,7 +59094,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -59146,7 +59146,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
@@ -59198,7 +59198,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
@@ -59250,7 +59250,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>2022-03-18 10:44:17</t>
+          <t>2022-03-18 13:31:32</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
